--- a/input/commands.xlsx
+++ b/input/commands.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvillato/Documents/Projects/Aibel JS P2/script2/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvillato/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DEF66-F13A-AB41-8D56-8C2DC54D6D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA749BD6-ED0A-5043-AA60-C7C15451D01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1320" windowWidth="32660" windowHeight="17740" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cisco" sheetId="3" r:id="rId1"/>
+    <sheet name="RSP" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Comments</t>
   </si>
@@ -139,13 +140,94 @@
   </si>
   <si>
     <t xml:space="preserve">show platform stack manager all </t>
+  </si>
+  <si>
+    <t>Hirschmann RSP</t>
+  </si>
+  <si>
+    <t>show running-config script</t>
+  </si>
+  <si>
+    <t>show sntp global</t>
+  </si>
+  <si>
+    <t>show spanning-tree global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show vlan brief </t>
+  </si>
+  <si>
+    <t>show system info</t>
+  </si>
+  <si>
+    <t>show device-status all</t>
+  </si>
+  <si>
+    <t>show link-aggregation stat</t>
+  </si>
+  <si>
+    <t>show link-aggregation port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show mac-addr-table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show network management access global </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show network hidiscovery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show interface utilization </t>
+  </si>
+  <si>
+    <t>Listing possible restrictions on access</t>
+  </si>
+  <si>
+    <t>show interface counters</t>
+  </si>
+  <si>
+    <t>show interface ether-stats</t>
+  </si>
+  <si>
+    <t>show port all</t>
+  </si>
+  <si>
+    <t>show interface statistics</t>
+  </si>
+  <si>
+    <t>show lldp remote-data</t>
+  </si>
+  <si>
+    <t>show lldp global</t>
+  </si>
+  <si>
+    <t>show clock</t>
+  </si>
+  <si>
+    <t>show spanning-tree port lag/1</t>
+  </si>
+  <si>
+    <t>show spanning-tree port</t>
+  </si>
+  <si>
+    <t>show snmp access</t>
+  </si>
+  <si>
+    <t>show snmp community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show ssh </t>
+  </si>
+  <si>
+    <t>Ping 1.1.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,6 +258,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,10 +288,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -197,11 +326,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -720,4 +863,203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF68855-C301-1944-A07C-84BA904E6C0A}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>